--- a/data/trans_dic/P15E_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.6616728266768008</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8103886038445992</v>
+        <v>0.8103886038445991</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7762174694522438</v>
+        <v>0.7762174694522439</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1755516381554278</v>
+        <v>0.2416348316883686</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6519522712465279</v>
+        <v>0.6257861051565271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6052903781668482</v>
+        <v>0.6100329825578933</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9252090250830562</v>
+        <v>0.9193202005483324</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9317871421928681</v>
+        <v>0.9289552980457281</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.883730099168955</v>
+        <v>0.8875333779300559</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.6125585015570175</v>
+        <v>0.6125585015570174</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7568029981629831</v>
+        <v>0.7568029981629832</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7208388104125841</v>
+        <v>0.7208388104125842</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3792720760401787</v>
+        <v>0.3568059493752844</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6474081004155855</v>
+        <v>0.6381010004971218</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6203864075307862</v>
+        <v>0.6094301180910928</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8293101537489788</v>
+        <v>0.8181978131002956</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8432929985570879</v>
+        <v>0.8472250065770909</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.812594299515669</v>
+        <v>0.805710483911496</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6434153710724438</v>
+        <v>0.643415371072444</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.6782784946987234</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4118892271237765</v>
+        <v>0.3988088253691432</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5353138829429959</v>
+        <v>0.5147708451177423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5417269297578733</v>
+        <v>0.5343048888529459</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8665035753119198</v>
+        <v>0.8274921743238861</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8268366962383266</v>
+        <v>0.8104079765239992</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7780960436579047</v>
+        <v>0.7767650138276473</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.6636149838997781</v>
+        <v>0.6636149838997782</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.6851470076788296</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3293844144463305</v>
+        <v>0.3114297168840227</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4850237477665521</v>
+        <v>0.481517568633573</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5003906371627663</v>
+        <v>0.5055358914488762</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9023887807796908</v>
+        <v>0.8926314401434075</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8538789745133285</v>
+        <v>0.8433635199912177</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8071116617733453</v>
+        <v>0.8200110586354418</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.6401745472237639</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7358927231698867</v>
+        <v>0.7358927231698869</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.7066541971479687</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4828359200218616</v>
+        <v>0.504242052078869</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6650782657722347</v>
+        <v>0.6638507937406963</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6386083337209408</v>
+        <v>0.641828611941947</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7518346003207015</v>
+        <v>0.7634351258886519</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8008572506625115</v>
+        <v>0.799908682029289</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7655561420356886</v>
+        <v>0.7676110877304531</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>842</v>
+        <v>1160</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10487</v>
+        <v>10066</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12641</v>
+        <v>12740</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4440</v>
+        <v>4412</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14988</v>
+        <v>14942</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18456</v>
+        <v>18535</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4436</v>
+        <v>4173</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22795</v>
+        <v>22468</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>29099</v>
+        <v>28585</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9699</v>
+        <v>9569</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29692</v>
+        <v>29831</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38114</v>
+        <v>37791</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5848</v>
+        <v>5662</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10995</v>
+        <v>10573</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18818</v>
+        <v>18560</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12302</v>
+        <v>11748</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16983</v>
+        <v>16646</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27029</v>
+        <v>26982</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2442</v>
+        <v>2309</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7179</v>
+        <v>7127</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11116</v>
+        <v>11230</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6690</v>
+        <v>6618</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12638</v>
+        <v>12483</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17930</v>
+        <v>18217</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18398</v>
+        <v>19214</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>57620</v>
+        <v>57514</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>79661</v>
+        <v>80062</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28648</v>
+        <v>29090</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>69384</v>
+        <v>69302</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>95496</v>
+        <v>95753</v>
       </c>
     </row>
     <row r="24">
